--- a/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21525" windowHeight="10680"/>
+    <workbookView windowWidth="22830" windowHeight="9495"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -133,7 +133,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,12 +154,6 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -616,52 +610,52 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -670,83 +664,83 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyAlignment="1"/>
@@ -759,10 +753,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1114,10 +1105,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1233,10 +1224,10 @@
       <c r="D5" s="5">
         <v>1</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G5" s="5">
@@ -1253,10 +1244,10 @@
       <c r="D6" s="5">
         <v>1</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="5">
@@ -1273,10 +1264,10 @@
       <c r="D7" s="5">
         <v>1</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G7" s="5"/>
@@ -1291,10 +1282,10 @@
       <c r="D8" s="5">
         <v>1</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G8" s="5"/>
@@ -1309,10 +1300,10 @@
       <c r="D9" s="5">
         <v>1</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G9" s="5"/>
@@ -1327,13 +1318,73 @@
       <c r="D10" s="5">
         <v>1</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="5"/>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="5"/>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="5"/>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="5"/>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="5"/>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="5"/>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="5"/>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="5"/>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="5"/>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="5"/>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="5"/>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="5"/>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="5"/>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="5"/>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="5"/>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="5"/>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="5"/>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="5"/>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="5"/>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1348,7 +1399,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>

--- a/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22830" windowHeight="9495"/>
+    <workbookView windowWidth="23070" windowHeight="10080"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -1108,7 +1108,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>

--- a/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23070" windowHeight="10080"/>
+    <workbookView windowWidth="23550" windowHeight="11250"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="32">
   <si>
     <t>##var</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>Map2</t>
+  </si>
+  <si>
+    <t>DBCache</t>
   </si>
   <si>
     <t>RouterManager</t>
@@ -1108,7 +1111,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1326,8 +1329,22 @@
       </c>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="2:2">
-      <c r="B11" s="5"/>
+    <row r="11" spans="2:6">
+      <c r="B11" s="5">
+        <v>8</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="5"/>
@@ -1492,10 +1509,10 @@
         <v>3</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G4" s="5">
         <v>30300</v>
@@ -1512,10 +1529,10 @@
         <v>3</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G5" s="5">
         <v>30301</v>
@@ -1532,10 +1549,10 @@
         <v>3</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G6" s="5">
         <v>30302</v>
@@ -1552,10 +1569,10 @@
         <v>3</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G7" s="5">
         <v>30303</v>
@@ -1572,10 +1589,10 @@
         <v>3</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G8" s="5">
         <v>30304</v>

--- a/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23550" windowHeight="11250"/>
+    <workbookView windowWidth="23790" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="34">
   <si>
     <t>##var</t>
   </si>
@@ -106,6 +106,12 @@
   </si>
   <si>
     <t>DBCache</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>Guild</t>
   </si>
   <si>
     <t>RouterManager</t>
@@ -1111,7 +1117,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1346,11 +1352,39 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="2:2">
-      <c r="B12" s="5"/>
-    </row>
-    <row r="13" spans="2:2">
-      <c r="B13" s="5"/>
+    <row r="12" spans="2:6">
+      <c r="B12" s="5">
+        <v>9</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="5">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="5"/>
@@ -1509,10 +1543,10 @@
         <v>3</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G4" s="5">
         <v>30300</v>
@@ -1529,10 +1563,10 @@
         <v>3</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G5" s="5">
         <v>30301</v>
@@ -1549,10 +1583,10 @@
         <v>3</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G6" s="5">
         <v>30302</v>
@@ -1569,10 +1603,10 @@
         <v>3</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G7" s="5">
         <v>30303</v>
@@ -1589,10 +1623,10 @@
         <v>3</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G8" s="5">
         <v>30304</v>

--- a/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23790" windowHeight="11835"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="35">
   <si>
     <t>##var</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>Guild</t>
+  </si>
+  <si>
+    <t>Chat</t>
   </si>
   <si>
     <t>RouterManager</t>
@@ -1117,7 +1120,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1386,8 +1389,22 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
-      <c r="B14" s="5"/>
+    <row r="14" spans="2:6">
+      <c r="B14" s="5">
+        <v>11</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="5"/>
@@ -1543,10 +1560,10 @@
         <v>3</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G4" s="5">
         <v>30300</v>
@@ -1563,10 +1580,10 @@
         <v>3</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G5" s="5">
         <v>30301</v>
@@ -1583,10 +1600,10 @@
         <v>3</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="5">
         <v>30302</v>
@@ -1603,10 +1620,10 @@
         <v>3</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G7" s="5">
         <v>30303</v>
@@ -1623,10 +1640,10 @@
         <v>3</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G8" s="5">
         <v>30304</v>

--- a/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -1120,7 +1120,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>

--- a/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="15735" windowHeight="7740"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="36">
   <si>
     <t>##var</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>Chat</t>
+  </si>
+  <si>
+    <t>Log</t>
   </si>
   <si>
     <t>RouterManager</t>
@@ -1120,7 +1123,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1406,8 +1409,22 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="2:2">
-      <c r="B15" s="5"/>
+    <row r="15" spans="2:6">
+      <c r="B15" s="5">
+        <v>12</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="5"/>
@@ -1560,10 +1577,10 @@
         <v>3</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G4" s="5">
         <v>30300</v>
@@ -1580,10 +1597,10 @@
         <v>3</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G5" s="5">
         <v>30301</v>
@@ -1600,10 +1617,10 @@
         <v>3</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G6" s="5">
         <v>30302</v>
@@ -1620,10 +1637,10 @@
         <v>3</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G7" s="5">
         <v>30303</v>
@@ -1640,10 +1657,10 @@
         <v>3</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G8" s="5">
         <v>30304</v>

--- a/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15735" windowHeight="7740"/>
+    <workbookView windowWidth="22095" windowHeight="7740"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="37">
   <si>
     <t>##var</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>Log</t>
+  </si>
+  <si>
+    <t>TeamHall</t>
   </si>
   <si>
     <t>RouterManager</t>
@@ -1123,7 +1126,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1426,8 +1429,22 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="2:2">
-      <c r="B16" s="5"/>
+    <row r="16" spans="2:6">
+      <c r="B16" s="5">
+        <v>13</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="5"/>
@@ -1577,10 +1594,10 @@
         <v>3</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G4" s="5">
         <v>30300</v>
@@ -1597,10 +1614,10 @@
         <v>3</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G5" s="5">
         <v>30301</v>
@@ -1617,10 +1634,10 @@
         <v>3</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G6" s="5">
         <v>30302</v>
@@ -1637,10 +1654,10 @@
         <v>3</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G7" s="5">
         <v>30303</v>
@@ -1657,10 +1674,10 @@
         <v>3</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G8" s="5">
         <v>30304</v>

--- a/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22095" windowHeight="7740"/>
+    <workbookView windowWidth="18465" windowHeight="8325"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="38">
   <si>
     <t>##var</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>TeamHall</t>
+  </si>
+  <si>
+    <t>TimeEvent</t>
   </si>
   <si>
     <t>RouterManager</t>
@@ -151,7 +154,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,6 +179,18 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -628,52 +643,52 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -682,83 +697,83 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyAlignment="1"/>
@@ -771,8 +786,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="22" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="23" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="22" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="23" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="23" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="23" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1126,91 +1157,91 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="6" customWidth="1"/>
-    <col min="3" max="4" width="12.625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="14.625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="13.375" style="7" customWidth="1"/>
-    <col min="7" max="8" width="13.125" style="7" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="21.125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="8" customWidth="1"/>
+    <col min="3" max="4" width="12.625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="14.625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="13.375" style="9" customWidth="1"/>
+    <col min="7" max="8" width="13.125" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:8">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="6" customFormat="1" ht="16.5" spans="1:8">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="13.5" spans="1:8">
-      <c r="A2" s="2" t="s">
+      <c r="H1" s="12"/>
+    </row>
+    <row r="2" s="7" customFormat="1" ht="16.5" spans="1:8">
+      <c r="A2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:8">
-      <c r="A3" s="1" t="s">
+      <c r="H2" s="15"/>
+    </row>
+    <row r="3" s="6" customFormat="1" ht="16.5" spans="1:8">
+      <c r="A3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="3"/>
+      <c r="H3" s="12"/>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="5">
@@ -1242,10 +1273,10 @@
       <c r="D5" s="5">
         <v>1</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="9" t="s">
         <v>18</v>
       </c>
       <c r="G5" s="5">
@@ -1262,10 +1293,10 @@
       <c r="D6" s="5">
         <v>1</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="9" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="5">
@@ -1282,10 +1313,10 @@
       <c r="D7" s="5">
         <v>1</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="9" t="s">
         <v>20</v>
       </c>
       <c r="G7" s="5"/>
@@ -1300,10 +1331,10 @@
       <c r="D8" s="5">
         <v>1</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="9" t="s">
         <v>22</v>
       </c>
       <c r="G8" s="5"/>
@@ -1318,10 +1349,10 @@
       <c r="D9" s="5">
         <v>1</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="9" t="s">
         <v>23</v>
       </c>
       <c r="G9" s="5"/>
@@ -1336,10 +1367,10 @@
       <c r="D10" s="5">
         <v>1</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="9" t="s">
         <v>24</v>
       </c>
       <c r="G10" s="5"/>
@@ -1348,16 +1379,16 @@
       <c r="B11" s="5">
         <v>8</v>
       </c>
-      <c r="C11" s="7">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="C11" s="9">
+        <v>1</v>
+      </c>
+      <c r="D11" s="9">
+        <v>1</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="9" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1365,16 +1396,16 @@
       <c r="B12" s="5">
         <v>9</v>
       </c>
-      <c r="C12" s="7">
-        <v>1</v>
-      </c>
-      <c r="D12" s="7">
-        <v>1</v>
-      </c>
-      <c r="E12" s="7" t="s">
+      <c r="C12" s="9">
+        <v>1</v>
+      </c>
+      <c r="D12" s="9">
+        <v>1</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="9" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1382,16 +1413,16 @@
       <c r="B13" s="5">
         <v>10</v>
       </c>
-      <c r="C13" s="7">
-        <v>1</v>
-      </c>
-      <c r="D13" s="7">
-        <v>1</v>
-      </c>
-      <c r="E13" s="7" t="s">
+      <c r="C13" s="9">
+        <v>1</v>
+      </c>
+      <c r="D13" s="9">
+        <v>1</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="9" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1399,16 +1430,16 @@
       <c r="B14" s="5">
         <v>11</v>
       </c>
-      <c r="C14" s="7">
-        <v>1</v>
-      </c>
-      <c r="D14" s="7">
-        <v>1</v>
-      </c>
-      <c r="E14" s="7" t="s">
+      <c r="C14" s="9">
+        <v>1</v>
+      </c>
+      <c r="D14" s="9">
+        <v>1</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="9" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1416,16 +1447,16 @@
       <c r="B15" s="5">
         <v>12</v>
       </c>
-      <c r="C15" s="7">
-        <v>1</v>
-      </c>
-      <c r="D15" s="7">
-        <v>1</v>
-      </c>
-      <c r="E15" s="7" t="s">
+      <c r="C15" s="9">
+        <v>1</v>
+      </c>
+      <c r="D15" s="9">
+        <v>1</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="9" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1433,21 +1464,35 @@
       <c r="B16" s="5">
         <v>13</v>
       </c>
-      <c r="C16" s="7">
-        <v>1</v>
-      </c>
-      <c r="D16" s="7">
-        <v>1</v>
-      </c>
-      <c r="E16" s="7" t="s">
+      <c r="C16" s="9">
+        <v>1</v>
+      </c>
+      <c r="D16" s="9">
+        <v>1</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="5"/>
+    <row r="17" spans="2:6">
+      <c r="B17" s="5">
+        <v>14</v>
+      </c>
+      <c r="C17" s="9">
+        <v>1</v>
+      </c>
+      <c r="D17" s="9">
+        <v>1</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="5"/>
@@ -1594,10 +1639,10 @@
         <v>3</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G4" s="5">
         <v>30300</v>
@@ -1614,10 +1659,10 @@
         <v>3</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G5" s="5">
         <v>30301</v>
@@ -1634,10 +1679,10 @@
         <v>3</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G6" s="5">
         <v>30302</v>
@@ -1654,10 +1699,10 @@
         <v>3</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G7" s="5">
         <v>30303</v>
@@ -1674,10 +1719,10 @@
         <v>3</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G8" s="5">
         <v>30304</v>

--- a/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="39">
   <si>
     <t>##var</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>TimeEvent</t>
+  </si>
+  <si>
+    <t>RequestHall</t>
   </si>
   <si>
     <t>RouterManager</t>
@@ -773,7 +776,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyAlignment="1"/>
@@ -792,15 +795,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="22" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="23" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="23" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="23" applyFont="1" applyAlignment="1">
@@ -1157,7 +1152,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1172,76 +1167,76 @@
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="1" ht="16.5" spans="1:8">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12"/>
+      <c r="H1" s="10"/>
     </row>
     <row r="2" s="7" customFormat="1" ht="16.5" spans="1:8">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="15"/>
+      <c r="H2" s="11"/>
     </row>
     <row r="3" s="6" customFormat="1" ht="16.5" spans="1:8">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="12"/>
+      <c r="H3" s="10"/>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="5">
@@ -1494,8 +1489,22 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="5"/>
+    <row r="18" spans="2:6">
+      <c r="B18" s="5">
+        <v>15</v>
+      </c>
+      <c r="C18" s="9">
+        <v>1</v>
+      </c>
+      <c r="D18" s="9">
+        <v>1</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="5"/>
@@ -1639,10 +1648,10 @@
         <v>3</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G4" s="5">
         <v>30300</v>
@@ -1659,10 +1668,10 @@
         <v>3</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G5" s="5">
         <v>30301</v>
@@ -1679,10 +1688,10 @@
         <v>3</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G6" s="5">
         <v>30302</v>
@@ -1699,10 +1708,10 @@
         <v>3</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G7" s="5">
         <v>30303</v>
@@ -1719,10 +1728,10 @@
         <v>3</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G8" s="5">
         <v>30304</v>

--- a/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="47">
   <si>
     <t>##var</t>
   </si>
@@ -127,6 +127,30 @@
   </si>
   <si>
     <t>RequestHall</t>
+  </si>
+  <si>
+    <t>艾尔文森林</t>
+  </si>
+  <si>
+    <t>血蹄村</t>
+  </si>
+  <si>
+    <t>逐日岛</t>
+  </si>
+  <si>
+    <t>幽影谷</t>
+  </si>
+  <si>
+    <t>试炼谷</t>
+  </si>
+  <si>
+    <t>寒脊山谷</t>
+  </si>
+  <si>
+    <t>埃门谷</t>
+  </si>
+  <si>
+    <t>丧钟镇</t>
   </si>
   <si>
     <t>RouterManager</t>
@@ -157,7 +181,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,14 +210,20 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF006100"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF9C0006"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -646,52 +676,52 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -700,83 +730,83 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyAlignment="1"/>
@@ -791,8 +821,8 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="22" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="23" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
@@ -800,6 +830,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="23" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1151,11 +1184,11 @@
   <sheetPr/>
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="21.125" style="8" customWidth="1"/>
     <col min="2" max="2" width="12.625" style="8" customWidth="1"/>
@@ -1166,7 +1199,7 @@
     <col min="9" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1" ht="16.5" spans="1:8">
+    <row r="1" s="6" customFormat="1" spans="1:8">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1190,7 +1223,7 @@
       </c>
       <c r="H1" s="10"/>
     </row>
-    <row r="2" s="7" customFormat="1" ht="16.5" spans="1:8">
+    <row r="2" s="7" customFormat="1" spans="1:8">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -1214,7 +1247,7 @@
       </c>
       <c r="H2" s="11"/>
     </row>
-    <row r="3" s="6" customFormat="1" ht="16.5" spans="1:8">
+    <row r="3" s="6" customFormat="1" spans="1:8">
       <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
@@ -1239,33 +1272,33 @@
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5">
-        <v>1</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="B4" s="12">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12">
+        <v>1</v>
+      </c>
+      <c r="D4" s="12">
+        <v>1</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="12">
         <v>30002</v>
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="5">
+      <c r="B5" s="12">
         <v>2</v>
       </c>
-      <c r="C5" s="5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5">
+      <c r="C5" s="12">
+        <v>1</v>
+      </c>
+      <c r="D5" s="12">
         <v>1</v>
       </c>
       <c r="E5" s="9" t="s">
@@ -1274,18 +1307,18 @@
       <c r="F5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="12">
         <v>30003</v>
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="5">
+      <c r="B6" s="12">
         <v>3</v>
       </c>
-      <c r="C6" s="5">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5">
+      <c r="C6" s="12">
+        <v>1</v>
+      </c>
+      <c r="D6" s="12">
         <v>1</v>
       </c>
       <c r="E6" s="9" t="s">
@@ -1294,18 +1327,18 @@
       <c r="F6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="12">
         <v>30004</v>
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="5">
+      <c r="B7" s="12">
         <v>4</v>
       </c>
-      <c r="C7" s="5">
-        <v>1</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="C7" s="12">
+        <v>1</v>
+      </c>
+      <c r="D7" s="12">
         <v>1</v>
       </c>
       <c r="E7" s="9" t="s">
@@ -1314,16 +1347,16 @@
       <c r="F7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="5"/>
+      <c r="G7" s="12"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="5">
+      <c r="B8" s="12">
         <v>5</v>
       </c>
-      <c r="C8" s="5">
-        <v>1</v>
-      </c>
-      <c r="D8" s="5">
+      <c r="C8" s="12">
+        <v>1</v>
+      </c>
+      <c r="D8" s="12">
         <v>1</v>
       </c>
       <c r="E8" s="9" t="s">
@@ -1332,16 +1365,16 @@
       <c r="F8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="5"/>
+      <c r="G8" s="12"/>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="5">
+      <c r="B9" s="12">
         <v>6</v>
       </c>
-      <c r="C9" s="5">
-        <v>1</v>
-      </c>
-      <c r="D9" s="5">
+      <c r="C9" s="12">
+        <v>1</v>
+      </c>
+      <c r="D9" s="12">
         <v>1</v>
       </c>
       <c r="E9" s="9" t="s">
@@ -1350,16 +1383,16 @@
       <c r="F9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="5"/>
+      <c r="G9" s="12"/>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="5">
+      <c r="B10" s="12">
         <v>7</v>
       </c>
-      <c r="C10" s="5">
-        <v>1</v>
-      </c>
-      <c r="D10" s="5">
+      <c r="C10" s="12">
+        <v>1</v>
+      </c>
+      <c r="D10" s="12">
         <v>1</v>
       </c>
       <c r="E10" s="9" t="s">
@@ -1368,10 +1401,10 @@
       <c r="F10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="5"/>
+      <c r="G10" s="12"/>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="5">
+      <c r="B11" s="12">
         <v>8</v>
       </c>
       <c r="C11" s="9">
@@ -1388,7 +1421,7 @@
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="5">
+      <c r="B12" s="12">
         <v>9</v>
       </c>
       <c r="C12" s="9">
@@ -1405,7 +1438,7 @@
       </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="5">
+      <c r="B13" s="12">
         <v>10</v>
       </c>
       <c r="C13" s="9">
@@ -1422,7 +1455,7 @@
       </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="5">
+      <c r="B14" s="12">
         <v>11</v>
       </c>
       <c r="C14" s="9">
@@ -1439,7 +1472,7 @@
       </c>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="5">
+      <c r="B15" s="12">
         <v>12</v>
       </c>
       <c r="C15" s="9">
@@ -1456,7 +1489,7 @@
       </c>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="5">
+      <c r="B16" s="12">
         <v>13</v>
       </c>
       <c r="C16" s="9">
@@ -1473,7 +1506,7 @@
       </c>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="5">
+      <c r="B17" s="12">
         <v>14</v>
       </c>
       <c r="C17" s="9">
@@ -1490,7 +1523,7 @@
       </c>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="5">
+      <c r="B18" s="12">
         <v>15</v>
       </c>
       <c r="C18" s="9">
@@ -1506,41 +1539,153 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="5"/>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="5"/>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="5"/>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="5"/>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="5"/>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="5"/>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="5"/>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="5"/>
+    <row r="19" spans="2:6">
+      <c r="B19" s="12">
+        <v>100</v>
+      </c>
+      <c r="C19" s="9">
+        <v>1</v>
+      </c>
+      <c r="D19" s="9">
+        <v>1</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="12">
+        <v>101</v>
+      </c>
+      <c r="C20" s="9">
+        <v>1</v>
+      </c>
+      <c r="D20" s="9">
+        <v>1</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="12">
+        <v>102</v>
+      </c>
+      <c r="C21" s="9">
+        <v>1</v>
+      </c>
+      <c r="D21" s="9">
+        <v>1</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="12">
+        <v>103</v>
+      </c>
+      <c r="C22" s="9">
+        <v>1</v>
+      </c>
+      <c r="D22" s="9">
+        <v>1</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="12">
+        <v>104</v>
+      </c>
+      <c r="C23" s="9">
+        <v>1</v>
+      </c>
+      <c r="D23" s="9">
+        <v>1</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="12">
+        <v>105</v>
+      </c>
+      <c r="C24" s="9">
+        <v>1</v>
+      </c>
+      <c r="D24" s="9">
+        <v>1</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="12">
+        <v>106</v>
+      </c>
+      <c r="C25" s="9">
+        <v>1</v>
+      </c>
+      <c r="D25" s="9">
+        <v>1</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="12">
+        <v>107</v>
+      </c>
+      <c r="C26" s="9">
+        <v>1</v>
+      </c>
+      <c r="D26" s="9">
+        <v>1</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="5"/>
+      <c r="B27" s="12"/>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="5"/>
+      <c r="B28" s="12"/>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="5"/>
+      <c r="B29" s="12"/>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="5"/>
+      <c r="B30" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1648,10 +1793,10 @@
         <v>3</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G4" s="5">
         <v>30300</v>
@@ -1668,10 +1813,10 @@
         <v>3</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G5" s="5">
         <v>30301</v>
@@ -1688,10 +1833,10 @@
         <v>3</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G6" s="5">
         <v>30302</v>
@@ -1708,10 +1853,10 @@
         <v>3</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G7" s="5">
         <v>30303</v>
@@ -1728,10 +1873,10 @@
         <v>3</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G8" s="5">
         <v>30304</v>

--- a/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18465" windowHeight="8325"/>
+    <workbookView windowWidth="18705" windowHeight="10455"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="48">
   <si>
     <t>##var</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>RequestHall</t>
+  </si>
+  <si>
+    <t>PayHall</t>
   </si>
   <si>
     <t>艾尔文森林</t>
@@ -1182,10 +1185,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
@@ -1539,9 +1542,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:7">
       <c r="B19" s="12">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="C19" s="9">
         <v>1</v>
@@ -1550,15 +1553,18 @@
         <v>1</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>33</v>
       </c>
+      <c r="G19" s="9">
+        <v>30005</v>
+      </c>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="12">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C20" s="9">
         <v>1</v>
@@ -1575,7 +1581,7 @@
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="12">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C21" s="9">
         <v>1</v>
@@ -1592,7 +1598,7 @@
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="12">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C22" s="9">
         <v>1</v>
@@ -1609,7 +1615,7 @@
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="12">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C23" s="9">
         <v>1</v>
@@ -1626,7 +1632,7 @@
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="12">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C24" s="9">
         <v>1</v>
@@ -1643,7 +1649,7 @@
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="12">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C25" s="9">
         <v>1</v>
@@ -1660,7 +1666,7 @@
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="12">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C26" s="9">
         <v>1</v>
@@ -1675,8 +1681,22 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="12"/>
+    <row r="27" spans="2:6">
+      <c r="B27" s="12">
+        <v>107</v>
+      </c>
+      <c r="C27" s="9">
+        <v>1</v>
+      </c>
+      <c r="D27" s="9">
+        <v>1</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="12"/>
@@ -1686,6 +1706,9 @@
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="12"/>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1793,10 +1816,10 @@
         <v>3</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G4" s="5">
         <v>30300</v>
@@ -1813,10 +1836,10 @@
         <v>3</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G5" s="5">
         <v>30301</v>
@@ -1833,10 +1856,10 @@
         <v>3</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G6" s="5">
         <v>30302</v>
@@ -1853,10 +1876,10 @@
         <v>3</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G7" s="5">
         <v>30303</v>
@@ -1873,10 +1896,10 @@
         <v>3</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G8" s="5">
         <v>30304</v>

--- a/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18705" windowHeight="10455"/>
+    <workbookView windowWidth="24645" windowHeight="10455"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -1187,8 +1187,8 @@
   <sheetPr/>
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>

--- a/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24645" windowHeight="10455"/>
+    <workbookView windowWidth="24645" windowHeight="10455" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
     <sheet name="Router" sheetId="2" r:id="rId2"/>
+    <sheet name="机器人" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="50">
   <si>
     <t>##var</t>
   </si>
@@ -172,6 +173,12 @@
   </si>
   <si>
     <t>Router04</t>
+  </si>
+  <si>
+    <t>Robot</t>
+  </si>
+  <si>
+    <t>Robot01</t>
   </si>
 </sst>
 </file>
@@ -184,13 +191,31 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -679,162 +704,172 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="22" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="23" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="23" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="22" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="23" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="22" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="23" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="22" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="23" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="22" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="23" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="23" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="23" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1187,528 +1222,528 @@
   <sheetPr/>
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="8" customWidth="1"/>
-    <col min="3" max="4" width="12.625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="14.625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="13.375" style="9" customWidth="1"/>
-    <col min="7" max="8" width="13.125" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="21.125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="14" customWidth="1"/>
+    <col min="3" max="4" width="12.625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="14.625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="13.375" style="15" customWidth="1"/>
+    <col min="7" max="8" width="13.125" style="15" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1" spans="1:8">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="12" customFormat="1" spans="1:8">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="10" t="s">
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10"/>
-    </row>
-    <row r="2" s="7" customFormat="1" spans="1:8">
-      <c r="A2" s="7" t="s">
+      <c r="H1" s="16"/>
+    </row>
+    <row r="2" s="13" customFormat="1" spans="1:8">
+      <c r="A2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="11"/>
-    </row>
-    <row r="3" s="6" customFormat="1" spans="1:8">
-      <c r="A3" s="6" t="s">
+      <c r="H2" s="17"/>
+    </row>
+    <row r="3" s="12" customFormat="1" spans="1:8">
+      <c r="A3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="10"/>
+      <c r="H3" s="16"/>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="12">
-        <v>1</v>
-      </c>
-      <c r="C4" s="12">
-        <v>1</v>
-      </c>
-      <c r="D4" s="12">
-        <v>1</v>
-      </c>
-      <c r="E4" s="12" t="s">
+      <c r="B4" s="18">
+        <v>1</v>
+      </c>
+      <c r="C4" s="18">
+        <v>1</v>
+      </c>
+      <c r="D4" s="18">
+        <v>1</v>
+      </c>
+      <c r="E4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="18">
         <v>30002</v>
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="12">
+      <c r="B5" s="18">
         <v>2</v>
       </c>
-      <c r="C5" s="12">
-        <v>1</v>
-      </c>
-      <c r="D5" s="12">
-        <v>1</v>
-      </c>
-      <c r="E5" s="9" t="s">
+      <c r="C5" s="18">
+        <v>1</v>
+      </c>
+      <c r="D5" s="18">
+        <v>1</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="18">
         <v>30003</v>
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="12">
+      <c r="B6" s="18">
         <v>3</v>
       </c>
-      <c r="C6" s="12">
-        <v>1</v>
-      </c>
-      <c r="D6" s="12">
-        <v>1</v>
-      </c>
-      <c r="E6" s="9" t="s">
+      <c r="C6" s="18">
+        <v>1</v>
+      </c>
+      <c r="D6" s="18">
+        <v>1</v>
+      </c>
+      <c r="E6" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="18">
         <v>30004</v>
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="12">
+      <c r="B7" s="18">
         <v>4</v>
       </c>
-      <c r="C7" s="12">
-        <v>1</v>
-      </c>
-      <c r="D7" s="12">
-        <v>1</v>
-      </c>
-      <c r="E7" s="9" t="s">
+      <c r="C7" s="18">
+        <v>1</v>
+      </c>
+      <c r="D7" s="18">
+        <v>1</v>
+      </c>
+      <c r="E7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="12"/>
+      <c r="G7" s="18"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="12">
+      <c r="B8" s="18">
         <v>5</v>
       </c>
-      <c r="C8" s="12">
-        <v>1</v>
-      </c>
-      <c r="D8" s="12">
-        <v>1</v>
-      </c>
-      <c r="E8" s="9" t="s">
+      <c r="C8" s="18">
+        <v>1</v>
+      </c>
+      <c r="D8" s="18">
+        <v>1</v>
+      </c>
+      <c r="E8" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="12"/>
+      <c r="G8" s="18"/>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="12">
+      <c r="B9" s="18">
         <v>6</v>
       </c>
-      <c r="C9" s="12">
-        <v>1</v>
-      </c>
-      <c r="D9" s="12">
-        <v>1</v>
-      </c>
-      <c r="E9" s="9" t="s">
+      <c r="C9" s="18">
+        <v>1</v>
+      </c>
+      <c r="D9" s="18">
+        <v>1</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="12"/>
+      <c r="G9" s="18"/>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="12">
+      <c r="B10" s="18">
         <v>7</v>
       </c>
-      <c r="C10" s="12">
-        <v>1</v>
-      </c>
-      <c r="D10" s="12">
-        <v>1</v>
-      </c>
-      <c r="E10" s="9" t="s">
+      <c r="C10" s="18">
+        <v>1</v>
+      </c>
+      <c r="D10" s="18">
+        <v>1</v>
+      </c>
+      <c r="E10" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="12"/>
+      <c r="G10" s="18"/>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="12">
+      <c r="B11" s="18">
         <v>8</v>
       </c>
-      <c r="C11" s="9">
-        <v>1</v>
-      </c>
-      <c r="D11" s="9">
-        <v>1</v>
-      </c>
-      <c r="E11" s="9" t="s">
+      <c r="C11" s="15">
+        <v>1</v>
+      </c>
+      <c r="D11" s="15">
+        <v>1</v>
+      </c>
+      <c r="E11" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="15" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="12">
+      <c r="B12" s="18">
         <v>9</v>
       </c>
-      <c r="C12" s="9">
-        <v>1</v>
-      </c>
-      <c r="D12" s="9">
-        <v>1</v>
-      </c>
-      <c r="E12" s="9" t="s">
+      <c r="C12" s="15">
+        <v>1</v>
+      </c>
+      <c r="D12" s="15">
+        <v>1</v>
+      </c>
+      <c r="E12" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="15" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="12">
+      <c r="B13" s="18">
         <v>10</v>
       </c>
-      <c r="C13" s="9">
-        <v>1</v>
-      </c>
-      <c r="D13" s="9">
-        <v>1</v>
-      </c>
-      <c r="E13" s="9" t="s">
+      <c r="C13" s="15">
+        <v>1</v>
+      </c>
+      <c r="D13" s="15">
+        <v>1</v>
+      </c>
+      <c r="E13" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="12">
+      <c r="B14" s="18">
         <v>11</v>
       </c>
-      <c r="C14" s="9">
-        <v>1</v>
-      </c>
-      <c r="D14" s="9">
-        <v>1</v>
-      </c>
-      <c r="E14" s="9" t="s">
+      <c r="C14" s="15">
+        <v>1</v>
+      </c>
+      <c r="D14" s="15">
+        <v>1</v>
+      </c>
+      <c r="E14" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="15" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="12">
+      <c r="B15" s="18">
         <v>12</v>
       </c>
-      <c r="C15" s="9">
-        <v>1</v>
-      </c>
-      <c r="D15" s="9">
-        <v>1</v>
-      </c>
-      <c r="E15" s="9" t="s">
+      <c r="C15" s="15">
+        <v>1</v>
+      </c>
+      <c r="D15" s="15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="15" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="12">
+      <c r="B16" s="18">
         <v>13</v>
       </c>
-      <c r="C16" s="9">
-        <v>1</v>
-      </c>
-      <c r="D16" s="9">
-        <v>1</v>
-      </c>
-      <c r="E16" s="9" t="s">
+      <c r="C16" s="15">
+        <v>1</v>
+      </c>
+      <c r="D16" s="15">
+        <v>1</v>
+      </c>
+      <c r="E16" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="15" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="12">
+      <c r="B17" s="18">
         <v>14</v>
       </c>
-      <c r="C17" s="9">
-        <v>1</v>
-      </c>
-      <c r="D17" s="9">
-        <v>1</v>
-      </c>
-      <c r="E17" s="9" t="s">
+      <c r="C17" s="15">
+        <v>1</v>
+      </c>
+      <c r="D17" s="15">
+        <v>1</v>
+      </c>
+      <c r="E17" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="15" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="12">
+      <c r="B18" s="18">
         <v>15</v>
       </c>
-      <c r="C18" s="9">
-        <v>1</v>
-      </c>
-      <c r="D18" s="9">
-        <v>1</v>
-      </c>
-      <c r="E18" s="9" t="s">
+      <c r="C18" s="15">
+        <v>1</v>
+      </c>
+      <c r="D18" s="15">
+        <v>1</v>
+      </c>
+      <c r="E18" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="15" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="12">
+      <c r="B19" s="18">
         <v>16</v>
       </c>
-      <c r="C19" s="9">
-        <v>1</v>
-      </c>
-      <c r="D19" s="9">
-        <v>1</v>
-      </c>
-      <c r="E19" s="9" t="s">
+      <c r="C19" s="15">
+        <v>1</v>
+      </c>
+      <c r="D19" s="15">
+        <v>1</v>
+      </c>
+      <c r="E19" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="15">
         <v>30005</v>
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="12">
+      <c r="B20" s="18">
         <v>100</v>
       </c>
-      <c r="C20" s="9">
-        <v>1</v>
-      </c>
-      <c r="D20" s="9">
-        <v>1</v>
-      </c>
-      <c r="E20" s="9" t="s">
+      <c r="C20" s="15">
+        <v>1</v>
+      </c>
+      <c r="D20" s="15">
+        <v>1</v>
+      </c>
+      <c r="E20" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="15" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="12">
+      <c r="B21" s="18">
         <v>101</v>
       </c>
-      <c r="C21" s="9">
-        <v>1</v>
-      </c>
-      <c r="D21" s="9">
-        <v>1</v>
-      </c>
-      <c r="E21" s="9" t="s">
+      <c r="C21" s="15">
+        <v>1</v>
+      </c>
+      <c r="D21" s="15">
+        <v>1</v>
+      </c>
+      <c r="E21" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="12">
+      <c r="B22" s="18">
         <v>102</v>
       </c>
-      <c r="C22" s="9">
-        <v>1</v>
-      </c>
-      <c r="D22" s="9">
-        <v>1</v>
-      </c>
-      <c r="E22" s="9" t="s">
+      <c r="C22" s="15">
+        <v>1</v>
+      </c>
+      <c r="D22" s="15">
+        <v>1</v>
+      </c>
+      <c r="E22" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="15" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="12">
+      <c r="B23" s="18">
         <v>103</v>
       </c>
-      <c r="C23" s="9">
-        <v>1</v>
-      </c>
-      <c r="D23" s="9">
-        <v>1</v>
-      </c>
-      <c r="E23" s="9" t="s">
+      <c r="C23" s="15">
+        <v>1</v>
+      </c>
+      <c r="D23" s="15">
+        <v>1</v>
+      </c>
+      <c r="E23" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="15" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="12">
+      <c r="B24" s="18">
         <v>104</v>
       </c>
-      <c r="C24" s="9">
-        <v>1</v>
-      </c>
-      <c r="D24" s="9">
-        <v>1</v>
-      </c>
-      <c r="E24" s="9" t="s">
+      <c r="C24" s="15">
+        <v>1</v>
+      </c>
+      <c r="D24" s="15">
+        <v>1</v>
+      </c>
+      <c r="E24" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="15" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="12">
+      <c r="B25" s="18">
         <v>105</v>
       </c>
-      <c r="C25" s="9">
-        <v>1</v>
-      </c>
-      <c r="D25" s="9">
-        <v>1</v>
-      </c>
-      <c r="E25" s="9" t="s">
+      <c r="C25" s="15">
+        <v>1</v>
+      </c>
+      <c r="D25" s="15">
+        <v>1</v>
+      </c>
+      <c r="E25" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="15" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="12">
+      <c r="B26" s="18">
         <v>106</v>
       </c>
-      <c r="C26" s="9">
-        <v>1</v>
-      </c>
-      <c r="D26" s="9">
-        <v>1</v>
-      </c>
-      <c r="E26" s="9" t="s">
+      <c r="C26" s="15">
+        <v>1</v>
+      </c>
+      <c r="D26" s="15">
+        <v>1</v>
+      </c>
+      <c r="E26" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="15" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="12">
+      <c r="B27" s="18">
         <v>107</v>
       </c>
-      <c r="C27" s="9">
-        <v>1</v>
-      </c>
-      <c r="D27" s="9">
-        <v>1</v>
-      </c>
-      <c r="E27" s="9" t="s">
+      <c r="C27" s="15">
+        <v>1</v>
+      </c>
+      <c r="D27" s="15">
+        <v>1</v>
+      </c>
+      <c r="E27" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="15" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="12"/>
+      <c r="B28" s="18"/>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="12"/>
+      <c r="B29" s="18"/>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="12"/>
+      <c r="B30" s="18"/>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="12"/>
+      <c r="B31" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1723,7 +1758,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="A1" sqref="A1:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>
@@ -1733,175 +1768,175 @@
     <col min="5" max="6" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="7" customFormat="1" spans="1:8">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:8">
-      <c r="A2" s="2" t="s">
+      <c r="H1" s="9"/>
+    </row>
+    <row r="2" s="8" customFormat="1" spans="1:8">
+      <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:8">
-      <c r="A3" s="1" t="s">
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" s="7" customFormat="1" spans="1:8">
+      <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="3"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" ht="14.25" spans="2:7">
-      <c r="B4" s="5">
+      <c r="B4" s="11">
         <v>300</v>
       </c>
-      <c r="C4" s="5">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5">
+      <c r="C4" s="11">
+        <v>1</v>
+      </c>
+      <c r="D4" s="11">
         <v>3</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="11">
         <v>30300</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="2:7">
-      <c r="B5" s="5">
+      <c r="B5" s="11">
         <v>301</v>
       </c>
-      <c r="C5" s="5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5">
+      <c r="C5" s="11">
+        <v>1</v>
+      </c>
+      <c r="D5" s="11">
         <v>3</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="11">
         <v>30301</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="2:7">
-      <c r="B6" s="5">
+      <c r="B6" s="11">
         <v>302</v>
       </c>
-      <c r="C6" s="5">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5">
+      <c r="C6" s="11">
+        <v>1</v>
+      </c>
+      <c r="D6" s="11">
         <v>3</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="11">
         <v>30302</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="2:7">
-      <c r="B7" s="5">
+      <c r="B7" s="11">
         <v>303</v>
       </c>
-      <c r="C7" s="5">
-        <v>1</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="C7" s="11">
+        <v>1</v>
+      </c>
+      <c r="D7" s="11">
         <v>3</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="11">
         <v>30303</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="2:7">
-      <c r="B8" s="5">
+      <c r="B8" s="11">
         <v>304</v>
       </c>
-      <c r="C8" s="5">
-        <v>1</v>
-      </c>
-      <c r="D8" s="5">
+      <c r="C8" s="11">
+        <v>1</v>
+      </c>
+      <c r="D8" s="11">
         <v>3</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="11">
         <v>30304</v>
       </c>
     </row>
@@ -1909,4 +1944,110 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="3" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="1">
+        <v>200</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>101</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24645" windowHeight="10455" activeTab="2"/>
+    <workbookView windowWidth="23265" windowHeight="10455"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -834,7 +834,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="22" applyFont="1" applyAlignment="1"/>
@@ -845,7 +845,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="23" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="22" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="23" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="22" applyAlignment="1">
@@ -1222,528 +1221,528 @@
   <sheetPr/>
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="14" customWidth="1"/>
-    <col min="3" max="4" width="12.625" style="15" customWidth="1"/>
-    <col min="5" max="5" width="14.625" style="15" customWidth="1"/>
-    <col min="6" max="6" width="13.375" style="15" customWidth="1"/>
-    <col min="7" max="8" width="13.125" style="15" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="14"/>
+    <col min="1" max="1" width="21.125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="13" customWidth="1"/>
+    <col min="3" max="4" width="12.625" style="14" customWidth="1"/>
+    <col min="5" max="5" width="14.625" style="14" customWidth="1"/>
+    <col min="6" max="6" width="13.375" style="14" customWidth="1"/>
+    <col min="7" max="8" width="13.125" style="14" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="1" spans="1:8">
-      <c r="A1" s="12" t="s">
+    <row r="1" s="11" customFormat="1" spans="1:8">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="16" t="s">
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="16"/>
-    </row>
-    <row r="2" s="13" customFormat="1" spans="1:8">
-      <c r="A2" s="13" t="s">
+      <c r="H1" s="15"/>
+    </row>
+    <row r="2" s="12" customFormat="1" spans="1:8">
+      <c r="A2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="17"/>
-    </row>
-    <row r="3" s="12" customFormat="1" spans="1:8">
-      <c r="A3" s="12" t="s">
+      <c r="H2" s="16"/>
+    </row>
+    <row r="3" s="11" customFormat="1" spans="1:8">
+      <c r="A3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="16" t="s">
+      <c r="B3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="16"/>
+      <c r="H3" s="15"/>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="18">
-        <v>1</v>
-      </c>
-      <c r="C4" s="18">
-        <v>1</v>
-      </c>
-      <c r="D4" s="18">
-        <v>1</v>
-      </c>
-      <c r="E4" s="18" t="s">
+      <c r="B4" s="17">
+        <v>1</v>
+      </c>
+      <c r="C4" s="17">
+        <v>1</v>
+      </c>
+      <c r="D4" s="17">
+        <v>1</v>
+      </c>
+      <c r="E4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="17">
         <v>30002</v>
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="18">
+      <c r="B5" s="17">
         <v>2</v>
       </c>
-      <c r="C5" s="18">
-        <v>1</v>
-      </c>
-      <c r="D5" s="18">
-        <v>1</v>
-      </c>
-      <c r="E5" s="15" t="s">
+      <c r="C5" s="17">
+        <v>1</v>
+      </c>
+      <c r="D5" s="17">
+        <v>1</v>
+      </c>
+      <c r="E5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="17">
         <v>30003</v>
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="18">
+      <c r="B6" s="17">
         <v>3</v>
       </c>
-      <c r="C6" s="18">
-        <v>1</v>
-      </c>
-      <c r="D6" s="18">
-        <v>1</v>
-      </c>
-      <c r="E6" s="15" t="s">
+      <c r="C6" s="17">
+        <v>1</v>
+      </c>
+      <c r="D6" s="17">
+        <v>1</v>
+      </c>
+      <c r="E6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="17">
         <v>30004</v>
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="18">
+      <c r="B7" s="17">
         <v>4</v>
       </c>
-      <c r="C7" s="18">
-        <v>1</v>
-      </c>
-      <c r="D7" s="18">
-        <v>1</v>
-      </c>
-      <c r="E7" s="15" t="s">
+      <c r="C7" s="17">
+        <v>1</v>
+      </c>
+      <c r="D7" s="17">
+        <v>1</v>
+      </c>
+      <c r="E7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="18"/>
+      <c r="G7" s="17"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="18">
+      <c r="B8" s="17">
         <v>5</v>
       </c>
-      <c r="C8" s="18">
-        <v>1</v>
-      </c>
-      <c r="D8" s="18">
-        <v>1</v>
-      </c>
-      <c r="E8" s="15" t="s">
+      <c r="C8" s="17">
+        <v>1</v>
+      </c>
+      <c r="D8" s="17">
+        <v>1</v>
+      </c>
+      <c r="E8" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="18"/>
+      <c r="G8" s="17"/>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="18">
+      <c r="B9" s="17">
         <v>6</v>
       </c>
-      <c r="C9" s="18">
-        <v>1</v>
-      </c>
-      <c r="D9" s="18">
-        <v>1</v>
-      </c>
-      <c r="E9" s="15" t="s">
+      <c r="C9" s="17">
+        <v>1</v>
+      </c>
+      <c r="D9" s="17">
+        <v>1</v>
+      </c>
+      <c r="E9" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="18"/>
+      <c r="G9" s="17"/>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="18">
+      <c r="B10" s="17">
         <v>7</v>
       </c>
-      <c r="C10" s="18">
-        <v>1</v>
-      </c>
-      <c r="D10" s="18">
-        <v>1</v>
-      </c>
-      <c r="E10" s="15" t="s">
+      <c r="C10" s="17">
+        <v>1</v>
+      </c>
+      <c r="D10" s="17">
+        <v>1</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="18"/>
+      <c r="G10" s="17"/>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="18">
+      <c r="B11" s="17">
         <v>8</v>
       </c>
-      <c r="C11" s="15">
-        <v>1</v>
-      </c>
-      <c r="D11" s="15">
-        <v>1</v>
-      </c>
-      <c r="E11" s="15" t="s">
+      <c r="C11" s="14">
+        <v>1</v>
+      </c>
+      <c r="D11" s="14">
+        <v>1</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="18">
+      <c r="B12" s="17">
         <v>9</v>
       </c>
-      <c r="C12" s="15">
-        <v>1</v>
-      </c>
-      <c r="D12" s="15">
-        <v>1</v>
-      </c>
-      <c r="E12" s="15" t="s">
+      <c r="C12" s="14">
+        <v>1</v>
+      </c>
+      <c r="D12" s="14">
+        <v>1</v>
+      </c>
+      <c r="E12" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="14" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="18">
+      <c r="B13" s="17">
         <v>10</v>
       </c>
-      <c r="C13" s="15">
-        <v>1</v>
-      </c>
-      <c r="D13" s="15">
-        <v>1</v>
-      </c>
-      <c r="E13" s="15" t="s">
+      <c r="C13" s="14">
+        <v>1</v>
+      </c>
+      <c r="D13" s="14">
+        <v>1</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="18">
+      <c r="B14" s="17">
         <v>11</v>
       </c>
-      <c r="C14" s="15">
-        <v>1</v>
-      </c>
-      <c r="D14" s="15">
-        <v>1</v>
-      </c>
-      <c r="E14" s="15" t="s">
+      <c r="C14" s="14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="14" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="18">
+      <c r="B15" s="17">
         <v>12</v>
       </c>
-      <c r="C15" s="15">
-        <v>1</v>
-      </c>
-      <c r="D15" s="15">
-        <v>1</v>
-      </c>
-      <c r="E15" s="15" t="s">
+      <c r="C15" s="14">
+        <v>1</v>
+      </c>
+      <c r="D15" s="14">
+        <v>1</v>
+      </c>
+      <c r="E15" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="14" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="18">
+      <c r="B16" s="17">
         <v>13</v>
       </c>
-      <c r="C16" s="15">
-        <v>1</v>
-      </c>
-      <c r="D16" s="15">
-        <v>1</v>
-      </c>
-      <c r="E16" s="15" t="s">
+      <c r="C16" s="14">
+        <v>1</v>
+      </c>
+      <c r="D16" s="14">
+        <v>1</v>
+      </c>
+      <c r="E16" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="14" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="18">
+      <c r="B17" s="17">
         <v>14</v>
       </c>
-      <c r="C17" s="15">
-        <v>1</v>
-      </c>
-      <c r="D17" s="15">
-        <v>1</v>
-      </c>
-      <c r="E17" s="15" t="s">
+      <c r="C17" s="14">
+        <v>1</v>
+      </c>
+      <c r="D17" s="14">
+        <v>1</v>
+      </c>
+      <c r="E17" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="18">
+      <c r="B18" s="17">
         <v>15</v>
       </c>
-      <c r="C18" s="15">
-        <v>1</v>
-      </c>
-      <c r="D18" s="15">
-        <v>1</v>
-      </c>
-      <c r="E18" s="15" t="s">
+      <c r="C18" s="14">
+        <v>1</v>
+      </c>
+      <c r="D18" s="14">
+        <v>1</v>
+      </c>
+      <c r="E18" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="14" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="18">
+      <c r="B19" s="17">
         <v>16</v>
       </c>
-      <c r="C19" s="15">
-        <v>1</v>
-      </c>
-      <c r="D19" s="15">
-        <v>1</v>
-      </c>
-      <c r="E19" s="15" t="s">
+      <c r="C19" s="14">
+        <v>1</v>
+      </c>
+      <c r="D19" s="14">
+        <v>1</v>
+      </c>
+      <c r="E19" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="14">
         <v>30005</v>
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="18">
+      <c r="B20" s="17">
         <v>100</v>
       </c>
-      <c r="C20" s="15">
-        <v>1</v>
-      </c>
-      <c r="D20" s="15">
-        <v>1</v>
-      </c>
-      <c r="E20" s="15" t="s">
+      <c r="C20" s="14">
+        <v>1</v>
+      </c>
+      <c r="D20" s="14">
+        <v>1</v>
+      </c>
+      <c r="E20" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F20" s="14" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="18">
+      <c r="B21" s="17">
         <v>101</v>
       </c>
-      <c r="C21" s="15">
-        <v>1</v>
-      </c>
-      <c r="D21" s="15">
-        <v>1</v>
-      </c>
-      <c r="E21" s="15" t="s">
+      <c r="C21" s="14">
+        <v>1</v>
+      </c>
+      <c r="D21" s="14">
+        <v>1</v>
+      </c>
+      <c r="E21" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="14" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="18">
+      <c r="B22" s="17">
         <v>102</v>
       </c>
-      <c r="C22" s="15">
-        <v>1</v>
-      </c>
-      <c r="D22" s="15">
-        <v>1</v>
-      </c>
-      <c r="E22" s="15" t="s">
+      <c r="C22" s="14">
+        <v>1</v>
+      </c>
+      <c r="D22" s="14">
+        <v>1</v>
+      </c>
+      <c r="E22" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F22" s="14" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="18">
+      <c r="B23" s="17">
         <v>103</v>
       </c>
-      <c r="C23" s="15">
-        <v>1</v>
-      </c>
-      <c r="D23" s="15">
-        <v>1</v>
-      </c>
-      <c r="E23" s="15" t="s">
+      <c r="C23" s="14">
+        <v>1</v>
+      </c>
+      <c r="D23" s="14">
+        <v>1</v>
+      </c>
+      <c r="E23" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="F23" s="14" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="18">
+      <c r="B24" s="17">
         <v>104</v>
       </c>
-      <c r="C24" s="15">
-        <v>1</v>
-      </c>
-      <c r="D24" s="15">
-        <v>1</v>
-      </c>
-      <c r="E24" s="15" t="s">
+      <c r="C24" s="14">
+        <v>1</v>
+      </c>
+      <c r="D24" s="14">
+        <v>1</v>
+      </c>
+      <c r="E24" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="F24" s="14" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="18">
+      <c r="B25" s="17">
         <v>105</v>
       </c>
-      <c r="C25" s="15">
-        <v>1</v>
-      </c>
-      <c r="D25" s="15">
-        <v>1</v>
-      </c>
-      <c r="E25" s="15" t="s">
+      <c r="C25" s="14">
+        <v>1</v>
+      </c>
+      <c r="D25" s="14">
+        <v>1</v>
+      </c>
+      <c r="E25" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="15" t="s">
+      <c r="F25" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="18">
+      <c r="B26" s="17">
         <v>106</v>
       </c>
-      <c r="C26" s="15">
-        <v>1</v>
-      </c>
-      <c r="D26" s="15">
-        <v>1</v>
-      </c>
-      <c r="E26" s="15" t="s">
+      <c r="C26" s="14">
+        <v>1</v>
+      </c>
+      <c r="D26" s="14">
+        <v>1</v>
+      </c>
+      <c r="E26" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="15" t="s">
+      <c r="F26" s="14" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="18">
+      <c r="B27" s="17">
         <v>107</v>
       </c>
-      <c r="C27" s="15">
-        <v>1</v>
-      </c>
-      <c r="D27" s="15">
-        <v>1</v>
-      </c>
-      <c r="E27" s="15" t="s">
+      <c r="C27" s="14">
+        <v>1</v>
+      </c>
+      <c r="D27" s="14">
+        <v>1</v>
+      </c>
+      <c r="E27" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F27" s="15" t="s">
+      <c r="F27" s="14" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="18"/>
+      <c r="B28" s="17"/>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="18"/>
+      <c r="B29" s="17"/>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="18"/>
+      <c r="B30" s="17"/>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="18"/>
+      <c r="B31" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1768,175 +1767,175 @@
     <col min="5" max="6" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" spans="1:8">
-      <c r="A1" s="7" t="s">
+    <row r="1" s="6" customFormat="1" spans="1:8">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9"/>
-    </row>
-    <row r="2" s="8" customFormat="1" spans="1:8">
-      <c r="A2" s="8" t="s">
+      <c r="H1" s="8"/>
+    </row>
+    <row r="2" s="7" customFormat="1" spans="1:8">
+      <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="10"/>
-    </row>
-    <row r="3" s="7" customFormat="1" spans="1:8">
-      <c r="A3" s="7" t="s">
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" s="6" customFormat="1" spans="1:8">
+      <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="9"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" ht="14.25" spans="2:7">
-      <c r="B4" s="11">
+      <c r="B4" s="10">
         <v>300</v>
       </c>
-      <c r="C4" s="11">
-        <v>1</v>
-      </c>
-      <c r="D4" s="11">
+      <c r="C4" s="10">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10">
         <v>3</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="10">
         <v>30300</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="2:7">
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <v>301</v>
       </c>
-      <c r="C5" s="11">
-        <v>1</v>
-      </c>
-      <c r="D5" s="11">
+      <c r="C5" s="10">
+        <v>1</v>
+      </c>
+      <c r="D5" s="10">
         <v>3</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="10">
         <v>30301</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="2:7">
-      <c r="B6" s="11">
+      <c r="B6" s="10">
         <v>302</v>
       </c>
-      <c r="C6" s="11">
-        <v>1</v>
-      </c>
-      <c r="D6" s="11">
+      <c r="C6" s="10">
+        <v>1</v>
+      </c>
+      <c r="D6" s="10">
         <v>3</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="10">
         <v>30302</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="2:7">
-      <c r="B7" s="11">
+      <c r="B7" s="10">
         <v>303</v>
       </c>
-      <c r="C7" s="11">
-        <v>1</v>
-      </c>
-      <c r="D7" s="11">
+      <c r="C7" s="10">
+        <v>1</v>
+      </c>
+      <c r="D7" s="10">
         <v>3</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="10">
         <v>30303</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="2:7">
-      <c r="B8" s="11">
+      <c r="B8" s="10">
         <v>304</v>
       </c>
-      <c r="C8" s="11">
-        <v>1</v>
-      </c>
-      <c r="D8" s="11">
+      <c r="C8" s="10">
+        <v>1</v>
+      </c>
+      <c r="D8" s="10">
         <v>3</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="10">
         <v>30304</v>
       </c>
     </row>
@@ -1951,7 +1950,7 @@
   <sheetPr/>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -2039,10 +2038,10 @@
       <c r="D4" s="1">
         <v>101</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="1" t="s">
         <v>49</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23265" windowHeight="10455"/>
+    <workbookView windowWidth="25350" windowHeight="10455"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="51">
   <si>
     <t>##var</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>PayHall</t>
+  </si>
+  <si>
+    <t>QueueHall</t>
   </si>
   <si>
     <t>艾尔文森林</t>
@@ -1219,10 +1222,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
@@ -1598,7 +1601,7 @@
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="17">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="C20" s="14">
         <v>1</v>
@@ -1607,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="F20" s="14" t="s">
         <v>34</v>
@@ -1615,7 +1618,7 @@
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="17">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C21" s="14">
         <v>1</v>
@@ -1632,7 +1635,7 @@
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="17">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C22" s="14">
         <v>1</v>
@@ -1649,7 +1652,7 @@
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="17">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C23" s="14">
         <v>1</v>
@@ -1666,7 +1669,7 @@
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="17">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C24" s="14">
         <v>1</v>
@@ -1683,7 +1686,7 @@
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="17">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C25" s="14">
         <v>1</v>
@@ -1700,7 +1703,7 @@
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="17">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C26" s="14">
         <v>1</v>
@@ -1717,7 +1720,7 @@
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="17">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C27" s="14">
         <v>1</v>
@@ -1732,8 +1735,22 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="17"/>
+    <row r="28" spans="2:6">
+      <c r="B28" s="17">
+        <v>107</v>
+      </c>
+      <c r="C28" s="14">
+        <v>1</v>
+      </c>
+      <c r="D28" s="14">
+        <v>1</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="17"/>
@@ -1743,6 +1760,9 @@
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="17"/>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1850,10 +1870,10 @@
         <v>3</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G4" s="10">
         <v>30300</v>
@@ -1870,10 +1890,10 @@
         <v>3</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G5" s="10">
         <v>30301</v>
@@ -1890,10 +1910,10 @@
         <v>3</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G6" s="10">
         <v>30302</v>
@@ -1910,10 +1930,10 @@
         <v>3</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G7" s="10">
         <v>30303</v>
@@ -1930,10 +1950,10 @@
         <v>3</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G8" s="10">
         <v>30304</v>
@@ -2039,10 +2059,10 @@
         <v>101</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25350" windowHeight="10455"/>
+    <workbookView windowWidth="26310" windowHeight="11655"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="52">
   <si>
     <t>##var</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>QueueHall</t>
+  </si>
+  <si>
+    <t>RoundBattle</t>
   </si>
   <si>
     <t>艾尔文森林</t>
@@ -1222,10 +1225,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
@@ -1618,7 +1621,7 @@
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="17">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="C21" s="14">
         <v>1</v>
@@ -1627,7 +1630,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F21" s="14" t="s">
         <v>35</v>
@@ -1635,7 +1638,7 @@
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="17">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C22" s="14">
         <v>1</v>
@@ -1652,7 +1655,7 @@
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="17">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C23" s="14">
         <v>1</v>
@@ -1669,7 +1672,7 @@
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="17">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C24" s="14">
         <v>1</v>
@@ -1686,7 +1689,7 @@
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="17">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C25" s="14">
         <v>1</v>
@@ -1703,7 +1706,7 @@
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="17">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C26" s="14">
         <v>1</v>
@@ -1720,7 +1723,7 @@
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="17">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C27" s="14">
         <v>1</v>
@@ -1737,7 +1740,7 @@
     </row>
     <row r="28" spans="2:6">
       <c r="B28" s="17">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C28" s="14">
         <v>1</v>
@@ -1752,8 +1755,22 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="17"/>
+    <row r="29" spans="2:6">
+      <c r="B29" s="17">
+        <v>107</v>
+      </c>
+      <c r="C29" s="14">
+        <v>1</v>
+      </c>
+      <c r="D29" s="14">
+        <v>1</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="17"/>
@@ -1763,6 +1780,9 @@
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="17"/>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1870,10 +1890,10 @@
         <v>3</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G4" s="10">
         <v>30300</v>
@@ -1890,10 +1910,10 @@
         <v>3</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G5" s="10">
         <v>30301</v>
@@ -1910,10 +1930,10 @@
         <v>3</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G6" s="10">
         <v>30302</v>
@@ -1930,10 +1950,10 @@
         <v>3</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G7" s="10">
         <v>30303</v>
@@ -1950,10 +1970,10 @@
         <v>3</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G8" s="10">
         <v>30304</v>
@@ -2059,10 +2079,10 @@
         <v>101</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
